--- a/GuruBank/src/main/resources/Data/Excel/Data.xlsx
+++ b/GuruBank/src/main/resources/Data/Excel/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Selenium_GuruBank_Testing\GuruBank\src\main\resources\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD4BCC-9BA6-4636-81A5-A9DE3F575238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F949F9C0-8DC7-48B2-8945-36A386A1CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>aruvete</t>
+  </si>
+  <si>
+    <t>mngr546234</t>
+  </si>
+  <si>
+    <t>AmAjUhA</t>
   </si>
 </sst>
 </file>
@@ -439,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,33 +465,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>301233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{D344E340-1E17-49C5-95DA-42FFCDE886DA}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{D344E340-1E17-49C5-95DA-42FFCDE886DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,23 +510,23 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -544,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
